--- a/biology/Médecine/Artère_pancréatico-duodénale_inférieure/Artère_pancréatico-duodénale_inférieure.xlsx
+++ b/biology/Médecine/Artère_pancréatico-duodénale_inférieure/Artère_pancréatico-duodénale_inférieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_pancr%C3%A9atico-duod%C3%A9nale_inf%C3%A9rieure</t>
+          <t>Artère_pancréatico-duodénale_inférieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère pancréatico-duodénale inférieure se ramifie à partir de l'artère mésentérique supérieure ou de sa première branche intestinale, en face du bord supérieur de la partie inférieure du duodénum.
-Elle se divise immédiatement en branches antérieure et postérieure, qui courent entre la tête du pancréas et la petite courbure du duodénum. Elles s'anastomosent ensuite avec les branches antérieure et postérieure de l'artère pancréatico-duodénale supérieure[1]. Elle envoie des branches à la tête du pancréas et aux parties ascendante et inférieure du duodénum[1].
-L'artère pancréatico-duodénale inférieure est également connue sous le nom d'artère pancréatico-duodénale gauche de Rouvière, postéro-inférieure de Calas, ou encore tronc commun des artères pancréatiques inférieures de Calas[2].
+Elle se divise immédiatement en branches antérieure et postérieure, qui courent entre la tête du pancréas et la petite courbure du duodénum. Elles s'anastomosent ensuite avec les branches antérieure et postérieure de l'artère pancréatico-duodénale supérieure. Elle envoie des branches à la tête du pancréas et aux parties ascendante et inférieure du duodénum.
+L'artère pancréatico-duodénale inférieure est également connue sous le nom d'artère pancréatico-duodénale gauche de Rouvière, postéro-inférieure de Calas, ou encore tronc commun des artères pancréatiques inférieures de Calas.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_pancr%C3%A9atico-duod%C3%A9nale_inf%C3%A9rieure</t>
+          <t>Artère_pancréatico-duodénale_inférieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Images supplémentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dissection anatomique montrant l'origine des deux artères pancréatico-duodénales inférieures.
